--- a/medicine/Enfance/Noël_Tani/Noël_Tani.xlsx
+++ b/medicine/Enfance/Noël_Tani/Noël_Tani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>No%C3%ABl_Tani</t>
+          <t>Noël_Tani</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Noël Tani, pseudonyme de Léontine Leroux, née le 3 juin 1875 à Lyon et décédée le 18 avril 1966 à Versailles, est une écrivaine de langue française, autrice de nombreux romans d'aventures et sentimentaux destinés à la jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>No%C3%ABl_Tani</t>
+          <t>Noël_Tani</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Noël Tani est la sœur de l'archéologue Gabriel Leroux, la belle-sœur de Jean Joseph Lionnet, homme de lettres, et la tante de Paule Lionnet, dite Claude Renaudy.  
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>No%C3%ABl_Tani</t>
+          <t>Noël_Tani</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Prisonniers des Berbères , éditions de Montsouris, collection « Printemps », n°111, 1932
 L'Étrange Aventure de deux routiers , éditions de Montsouris, collection « Printemps », n°122, 1933
@@ -554,8 +570,8 @@
 L'Or maudit, éditions de Montsouris, collection « Printemps », n°214, 1936
 Le Fanion vert, éditions de Montsouris, collection « Printemps », n°223, 1937[lire en ligne]
 Deux Timbres sur une enveloppe, éditions de Montsouris, collection « Printemps », n°240, 1937
-La Flèche empoisonnée, éditions de Montsouris, collection « Printemps », n°253, 1938[1]
-Le Roi de la forêt, éditions de Montsouris, collection « Printemps », n°267, 1939[1]
+La Flèche empoisonnée, éditions de Montsouris, collection « Printemps », n°253, 1938
+Le Roi de la forêt, éditions de Montsouris, collection « Printemps », n°267, 1939
 La Mouette du Spitzberg , éditions de Montsouris, collection «  Printemps  », n°287, 1939
 L'Or vert ou l'or jaune ?, éditions de Montsouris, collection « Printemps », n°309, 1941
 La Destinée de Régine, éditions de Montsouris, collection « Lisette », n°2, 1941
